--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ccr5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>139.328418058081</v>
+        <v>1.143010666666667</v>
       </c>
       <c r="H2">
-        <v>139.328418058081</v>
+        <v>3.429032</v>
       </c>
       <c r="I2">
-        <v>0.4511630677310686</v>
+        <v>0.003608506296604248</v>
       </c>
       <c r="J2">
-        <v>0.4511630677310686</v>
+        <v>0.003608506296604249</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0646303166751848</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N2">
-        <v>0.0646303166751848</v>
+        <v>0.362231</v>
       </c>
       <c r="O2">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P2">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q2">
-        <v>9.004839780946313</v>
+        <v>0.1380112989324444</v>
       </c>
       <c r="R2">
-        <v>9.004839780946313</v>
+        <v>1.242101690392</v>
       </c>
       <c r="S2">
-        <v>0.0002761160703129838</v>
+        <v>3.927309370649714E-06</v>
       </c>
       <c r="T2">
-        <v>0.0002761160703129838</v>
+        <v>3.927309370649715E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>139.328418058081</v>
+        <v>1.143010666666667</v>
       </c>
       <c r="H3">
-        <v>139.328418058081</v>
+        <v>3.429032</v>
       </c>
       <c r="I3">
-        <v>0.4511630677310686</v>
+        <v>0.003608506296604248</v>
       </c>
       <c r="J3">
-        <v>0.4511630677310686</v>
+        <v>0.003608506296604249</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.5918509058762</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N3">
-        <v>47.5918509058762</v>
+        <v>146.580945</v>
       </c>
       <c r="O3">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P3">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q3">
-        <v>6630.897299171781</v>
+        <v>55.84786122169332</v>
       </c>
       <c r="R3">
-        <v>6630.897299171781</v>
+        <v>502.6307509952399</v>
       </c>
       <c r="S3">
-        <v>0.203323695860792</v>
+        <v>0.001589230957199109</v>
       </c>
       <c r="T3">
-        <v>0.203323695860792</v>
+        <v>0.001589230957199109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>139.328418058081</v>
+        <v>1.143010666666667</v>
       </c>
       <c r="H4">
-        <v>139.328418058081</v>
+        <v>3.429032</v>
       </c>
       <c r="I4">
-        <v>0.4511630677310686</v>
+        <v>0.003608506296604248</v>
       </c>
       <c r="J4">
-        <v>0.4511630677310686</v>
+        <v>0.003608506296604249</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.946977158392</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N4">
-        <v>57.946977158392</v>
+        <v>185.724758</v>
       </c>
       <c r="O4">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P4">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q4">
-        <v>8073.660658726512</v>
+        <v>70.76179315269511</v>
       </c>
       <c r="R4">
-        <v>8073.660658726512</v>
+        <v>636.856138374256</v>
       </c>
       <c r="S4">
-        <v>0.2475632557999636</v>
+        <v>0.00201362827161411</v>
       </c>
       <c r="T4">
-        <v>0.2475632557999636</v>
+        <v>0.00201362827161411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>169.236681439832</v>
+        <v>1.143010666666667</v>
       </c>
       <c r="H5">
-        <v>169.236681439832</v>
+        <v>3.429032</v>
       </c>
       <c r="I5">
-        <v>0.5480098133260312</v>
+        <v>0.003608506296604248</v>
       </c>
       <c r="J5">
-        <v>0.5480098133260312</v>
+        <v>0.003608506296604249</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.0646303166751848</v>
+        <v>0.05287333333333333</v>
       </c>
       <c r="N5">
-        <v>0.0646303166751848</v>
+        <v>0.15862</v>
       </c>
       <c r="O5">
-        <v>0.0006120094707698289</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="P5">
-        <v>0.0006120094707698289</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="Q5">
-        <v>10.93782031451371</v>
+        <v>0.06043478398222222</v>
       </c>
       <c r="R5">
-        <v>10.93782031451371</v>
+        <v>0.54391305584</v>
       </c>
       <c r="S5">
-        <v>0.0003353871958303371</v>
+        <v>1.719758420379421E-06</v>
       </c>
       <c r="T5">
-        <v>0.0003353871958303371</v>
+        <v>1.719758420379421E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>169.236681439832</v>
+        <v>144.3442863333333</v>
       </c>
       <c r="H6">
-        <v>169.236681439832</v>
+        <v>433.032859</v>
       </c>
       <c r="I6">
-        <v>0.5480098133260312</v>
+        <v>0.4556976424652904</v>
       </c>
       <c r="J6">
-        <v>0.5480098133260312</v>
+        <v>0.4556976424652905</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.5918509058762</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N6">
-        <v>47.5918509058762</v>
+        <v>0.362231</v>
       </c>
       <c r="O6">
-        <v>0.4506656470870311</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P6">
-        <v>0.4506656470870311</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q6">
-        <v>8054.286910889751</v>
+        <v>17.42865839426989</v>
       </c>
       <c r="R6">
-        <v>8054.286910889751</v>
+        <v>156.857925548429</v>
       </c>
       <c r="S6">
-        <v>0.2469691971326189</v>
+        <v>0.000495957461158116</v>
       </c>
       <c r="T6">
-        <v>0.2469691971326189</v>
+        <v>0.000495957461158116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>169.236681439832</v>
+        <v>144.3442863333333</v>
       </c>
       <c r="H7">
-        <v>169.236681439832</v>
+        <v>433.032859</v>
       </c>
       <c r="I7">
-        <v>0.5480098133260312</v>
+        <v>0.4556976424652904</v>
       </c>
       <c r="J7">
-        <v>0.5480098133260312</v>
+        <v>0.4556976424652905</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.946977158392</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N7">
-        <v>57.946977158392</v>
+        <v>146.580945</v>
       </c>
       <c r="O7">
-        <v>0.5487223434421992</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P7">
-        <v>0.5487223434421992</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q7">
-        <v>9806.754113756009</v>
+        <v>7052.707298696861</v>
       </c>
       <c r="R7">
-        <v>9806.754113756009</v>
+        <v>63474.36568827176</v>
       </c>
       <c r="S7">
-        <v>0.3007052289975819</v>
+        <v>0.2006948972792429</v>
       </c>
       <c r="T7">
-        <v>0.3007052289975819</v>
+        <v>0.2006948972792429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.255431310988565</v>
+        <v>144.3442863333333</v>
       </c>
       <c r="H8">
-        <v>0.255431310988565</v>
+        <v>433.032859</v>
       </c>
       <c r="I8">
-        <v>0.0008271189429002895</v>
+        <v>0.4556976424652904</v>
       </c>
       <c r="J8">
-        <v>0.0008271189429002895</v>
+        <v>0.4556976424652905</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0646303166751848</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N8">
-        <v>0.0646303166751848</v>
+        <v>185.724758</v>
       </c>
       <c r="O8">
-        <v>0.0006120094707698289</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P8">
-        <v>0.0006120094707698289</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q8">
-        <v>0.01650860651794857</v>
+        <v>8936.10254931368</v>
       </c>
       <c r="R8">
-        <v>0.01650860651794857</v>
+        <v>80424.92294382313</v>
       </c>
       <c r="S8">
-        <v>5.062046265081064E-07</v>
+        <v>0.254289609260073</v>
       </c>
       <c r="T8">
-        <v>5.062046265081064E-07</v>
+        <v>0.254289609260073</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.255431310988565</v>
+        <v>144.3442863333333</v>
       </c>
       <c r="H9">
-        <v>0.255431310988565</v>
+        <v>433.032859</v>
       </c>
       <c r="I9">
-        <v>0.0008271189429002895</v>
+        <v>0.4556976424652904</v>
       </c>
       <c r="J9">
-        <v>0.0008271189429002895</v>
+        <v>0.4556976424652905</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>47.5918509058762</v>
+        <v>0.05287333333333333</v>
       </c>
       <c r="N9">
-        <v>47.5918509058762</v>
+        <v>0.15862</v>
       </c>
       <c r="O9">
-        <v>0.4506656470870311</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="P9">
-        <v>0.4506656470870311</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="Q9">
-        <v>12.15644886926028</v>
+        <v>7.631963566064445</v>
       </c>
       <c r="R9">
-        <v>12.15644886926028</v>
+        <v>68.68767209458001</v>
       </c>
       <c r="S9">
-        <v>0.0003727540936201001</v>
+        <v>0.0002171784648163751</v>
       </c>
       <c r="T9">
-        <v>0.0003727540936201001</v>
+        <v>0.0002171784648163751</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>171.0003916666667</v>
+      </c>
+      <c r="H10">
+        <v>513.001175</v>
+      </c>
+      <c r="I10">
+        <v>0.5398514712469519</v>
+      </c>
+      <c r="J10">
+        <v>0.5398514712469519</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1207436666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.362231</v>
+      </c>
+      <c r="O10">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="P10">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="Q10">
+        <v>20.64721429126944</v>
+      </c>
+      <c r="R10">
+        <v>185.824928621425</v>
+      </c>
+      <c r="S10">
+        <v>0.0005875460834812315</v>
+      </c>
+      <c r="T10">
+        <v>0.0005875460834812315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>171.0003916666667</v>
+      </c>
+      <c r="H11">
+        <v>513.001175</v>
+      </c>
+      <c r="I11">
+        <v>0.5398514712469519</v>
+      </c>
+      <c r="J11">
+        <v>0.5398514712469519</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>48.86031499999999</v>
+      </c>
+      <c r="N11">
+        <v>146.580945</v>
+      </c>
+      <c r="O11">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="P11">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="Q11">
+        <v>8355.133001956707</v>
+      </c>
+      <c r="R11">
+        <v>75196.19701761036</v>
+      </c>
+      <c r="S11">
+        <v>0.2377572878846035</v>
+      </c>
+      <c r="T11">
+        <v>0.2377572878846035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>171.0003916666667</v>
+      </c>
+      <c r="H12">
+        <v>513.001175</v>
+      </c>
+      <c r="I12">
+        <v>0.5398514712469519</v>
+      </c>
+      <c r="J12">
+        <v>0.5398514712469519</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N12">
+        <v>185.724758</v>
+      </c>
+      <c r="O12">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P12">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q12">
+        <v>10586.33545339896</v>
+      </c>
+      <c r="R12">
+        <v>95277.01908059065</v>
+      </c>
+      <c r="S12">
+        <v>0.3012493523977781</v>
+      </c>
+      <c r="T12">
+        <v>0.3012493523977781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>171.0003916666667</v>
+      </c>
+      <c r="H13">
+        <v>513.001175</v>
+      </c>
+      <c r="I13">
+        <v>0.5398514712469519</v>
+      </c>
+      <c r="J13">
+        <v>0.5398514712469519</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.15862</v>
+      </c>
+      <c r="O13">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P13">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q13">
+        <v>9.041360708722223</v>
+      </c>
+      <c r="R13">
+        <v>81.37224637850001</v>
+      </c>
+      <c r="S13">
+        <v>0.0002572848810891198</v>
+      </c>
+      <c r="T13">
+        <v>0.0002572848810891198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2668276666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.8004830000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.0008423799911533806</v>
+      </c>
+      <c r="J14">
+        <v>0.0008423799911533806</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1207436666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.362231</v>
+      </c>
+      <c r="O14">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="P14">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="Q14">
+        <v>0.03221775084144445</v>
+      </c>
+      <c r="R14">
+        <v>0.289959757573</v>
+      </c>
+      <c r="S14">
+        <v>9.168022890850235E-07</v>
+      </c>
+      <c r="T14">
+        <v>9.168022890850235E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.255431310988565</v>
-      </c>
-      <c r="H10">
-        <v>0.255431310988565</v>
-      </c>
-      <c r="I10">
-        <v>0.0008271189429002895</v>
-      </c>
-      <c r="J10">
-        <v>0.0008271189429002895</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>57.946977158392</v>
-      </c>
-      <c r="N10">
-        <v>57.946977158392</v>
-      </c>
-      <c r="O10">
-        <v>0.5487223434421992</v>
-      </c>
-      <c r="P10">
-        <v>0.5487223434421992</v>
-      </c>
-      <c r="Q10">
-        <v>14.8014723433925</v>
-      </c>
-      <c r="R10">
-        <v>14.8014723433925</v>
-      </c>
-      <c r="S10">
-        <v>0.0004538586446536814</v>
-      </c>
-      <c r="T10">
-        <v>0.0004538586446536814</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2668276666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.8004830000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.0008423799911533806</v>
+      </c>
+      <c r="J15">
+        <v>0.0008423799911533806</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>48.86031499999999</v>
+      </c>
+      <c r="N15">
+        <v>146.580945</v>
+      </c>
+      <c r="O15">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="P15">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="Q15">
+        <v>13.03728384404833</v>
+      </c>
+      <c r="R15">
+        <v>117.335554596435</v>
+      </c>
+      <c r="S15">
+        <v>0.0003709946026492651</v>
+      </c>
+      <c r="T15">
+        <v>0.0003709946026492651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2668276666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.8004830000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.0008423799911533806</v>
+      </c>
+      <c r="J16">
+        <v>0.0008423799911533806</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N16">
+        <v>185.724758</v>
+      </c>
+      <c r="O16">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P16">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q16">
+        <v>16.51883460645711</v>
+      </c>
+      <c r="R16">
+        <v>148.669511458114</v>
+      </c>
+      <c r="S16">
+        <v>0.0004700671209094806</v>
+      </c>
+      <c r="T16">
+        <v>0.0004700671209094806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2668276666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.8004830000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.0008423799911533806</v>
+      </c>
+      <c r="J17">
+        <v>0.0008423799911533806</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.15862</v>
+      </c>
+      <c r="O17">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P17">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q17">
+        <v>0.01410806816222222</v>
+      </c>
+      <c r="R17">
+        <v>0.12697261346</v>
+      </c>
+      <c r="S17">
+        <v>4.014653055499569E-07</v>
+      </c>
+      <c r="T17">
+        <v>4.014653055499569E-07</v>
       </c>
     </row>
   </sheetData>
